--- a/datasheets/Luz_et_al_1984.xlsx
+++ b/datasheets/Luz_et_al_1984.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="72">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -148,6 +148,9 @@
     <t xml:space="preserve">DOI</t>
   </si>
   <si>
+    <t xml:space="preserve">refShort</t>
+  </si>
+  <si>
     <t xml:space="preserve">Homo sapiens</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1016/0016-7037(84)90338-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz et al. (1984)</t>
   </si>
   <si>
     <t xml:space="preserve">Finland</t>
@@ -396,10 +402,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP115"/>
+  <dimension ref="A1:AQ115"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP16" activeCellId="0" sqref="AP16"/>
+      <selection pane="topLeft" activeCell="AQ2" activeCellId="0" sqref="AQ2:AQ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -431,10 +437,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="48.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="26.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="43" style="1" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="14.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="44" style="1" width="11.66"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -561,37 +568,40 @@
       <c r="AP1" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="AQ1" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>11.6</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="n">
@@ -652,42 +662,45 @@
         <v>-24.7</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>12.5</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5" t="n">
@@ -748,42 +761,45 @@
         <v>-16.6</v>
       </c>
       <c r="AO3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>15.8</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="n">
@@ -844,42 +860,45 @@
         <v>-12.9</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>16</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="n">
@@ -940,42 +959,45 @@
         <v>-5.8</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>18</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="n">
@@ -1036,42 +1058,45 @@
         <v>-5.3</v>
       </c>
       <c r="AO6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>21.3</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="n">
@@ -1132,42 +1157,45 @@
         <v>-3.3</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>11.2</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="n">
@@ -1228,45 +1256,48 @@
         <v>-35.8</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>5</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="n">
@@ -1327,45 +1358,48 @@
         <v>-37.6</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="F10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>2.7</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="n">
@@ -1426,10 +1460,13 @@
         <v>-31.7</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
